--- a/Experiments/Activation/33MeVTa_25Apr/ETAData/ETAFoils.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/ETAData/ETAFoils.xlsx
@@ -45,21 +45,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Zr2</t>
-  </si>
-  <si>
-    <t>In2</t>
-  </si>
-  <si>
-    <t>Ni2</t>
-  </si>
-  <si>
-    <t>Au2</t>
-  </si>
-  <si>
-    <t>Al2</t>
-  </si>
-  <si>
     <t>HEU</t>
   </si>
   <si>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>based on density/measurements; purity needs verification</t>
+  </si>
+  <si>
+    <t>Zr3</t>
+  </si>
+  <si>
+    <t>In3</t>
+  </si>
+  <si>
+    <t>Ni3</t>
+  </si>
+  <si>
+    <t>Au3</t>
+  </si>
+  <si>
+    <t>Al3</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>49.93</v>
@@ -468,13 +468,17 @@
         <f>F2/((B2/20)^2*3.1415*D2/10)</f>
         <v>6.4775807997276145</v>
       </c>
+      <c r="I2">
+        <f>SQRT((C2/B2)^2+(E2/D2)^2+(G2/F2)^2)*H2</f>
+        <v>1.4110996158394663E-2</v>
+      </c>
       <c r="J2">
         <v>0.98850000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>50.05</v>
@@ -486,7 +490,7 @@
         <v>1.026</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
         <v>14.47</v>
@@ -498,13 +502,17 @@
         <f>F3/((B3/20)^2*3.1415*D3/10)</f>
         <v>7.1686261803975588</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">SQRT((C3/B3)^2+(E3/D3)^2+(G3/F3)^2)*H3</f>
+        <v>7.1329490099955747E-2</v>
+      </c>
       <c r="J3">
         <v>0.99999000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>49.85</v>
@@ -528,13 +536,17 @@
         <f>F4/((B4/20)^2*3.1415*D4/10)</f>
         <v>8.8208118377216067</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.1784025998641482E-2</v>
+      </c>
       <c r="J4">
         <v>0.98980000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>49.35</v>
@@ -543,7 +555,7 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>1.0009999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <v>3.0000000000000001E-3</v>
@@ -556,18 +568,22 @@
       </c>
       <c r="H5">
         <f>F5/((B5/20)^2*3.1415*D5/10)</f>
-        <v>1.8499632138918263</v>
+        <v>18.518131771057178</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.55690795889431188</v>
       </c>
       <c r="J5">
         <v>0.999</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <f>0.5*25.4</f>
@@ -591,16 +607,20 @@
         <f>F6/((B6/20)^2*3.1415*D6/10)</f>
         <v>10.613695313927996</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5.5403508567527911E-2</v>
+      </c>
       <c r="J6">
         <v>0.93149999999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>0.5*25.4</f>
@@ -623,16 +643,20 @@
       <c r="H7">
         <v>18.7</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>9.7614033526400926E-2</v>
+      </c>
       <c r="J7">
         <v>0.93149999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>49.96</v>
@@ -655,6 +679,10 @@
       <c r="H8">
         <f>F8/((B8/20)^2*3.1415*D8/10)</f>
         <v>2.6688213487534149</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.428681465836309E-2</v>
       </c>
       <c r="J8">
         <v>0.99999000000000005</v>
